--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="10560"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Indumentaria</t>
   </si>
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,7 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,16 +498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:K55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="A29:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -522,8 +520,11 @@
       <c r="D1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -536,8 +537,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -550,8 +554,11 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -564,8 +571,11 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -578,8 +588,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -592,8 +605,11 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -606,8 +622,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -620,8 +639,11 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -634,8 +656,11 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>22</v>
       </c>
@@ -648,8 +673,11 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>101</v>
       </c>
@@ -662,8 +690,11 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -676,8 +707,11 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -691,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -702,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -713,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -724,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -735,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -746,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -757,7 +791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -765,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -773,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -781,7 +815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -789,7 +823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -797,7 +831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -805,7 +839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="90">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -819,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="90">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -833,7 +867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="90">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -847,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="90">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -861,7 +895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="90">
       <c r="A33" s="1">
         <v>5</v>
       </c>
@@ -875,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="90">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -889,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="105">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -903,7 +937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="105">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -917,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="90">
       <c r="A37" s="1">
         <v>9</v>
       </c>
@@ -931,7 +965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="90">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -945,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="90">
       <c r="A39" s="1">
         <v>11</v>
       </c>
@@ -959,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="90">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -973,7 +1007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="90">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -987,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="30">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1033,8 +1067,11 @@
       <c r="K44" s="1">
         <v>5999</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1066,8 +1103,11 @@
       <c r="K45" s="1">
         <v>6500</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -1099,8 +1139,11 @@
       <c r="K46" s="1">
         <v>5899</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30">
       <c r="A47" s="1">
         <v>6</v>
       </c>
@@ -1132,8 +1175,11 @@
       <c r="K47" s="1">
         <v>2999</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -1165,8 +1211,11 @@
       <c r="K48" s="1">
         <v>2899</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>8</v>
       </c>
@@ -1198,8 +1247,11 @@
       <c r="K49" s="1">
         <v>7899</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -1231,8 +1283,11 @@
       <c r="K50" s="1">
         <v>6899</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -1264,8 +1319,11 @@
       <c r="K51" s="1">
         <v>9190</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -1297,8 +1355,11 @@
       <c r="K52" s="1">
         <v>4890</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>12</v>
       </c>
@@ -1330,8 +1391,11 @@
       <c r="K53" s="1">
         <v>9500</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>13</v>
       </c>
@@ -1363,8 +1427,11 @@
       <c r="K54" s="1">
         <v>6890</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1397,6 +1464,9 @@
       </c>
       <c r="K55" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1405,24 +1475,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
